--- a/FlaskWebApp/API_Charting/RESTChart.xlsx
+++ b/FlaskWebApp/API_Charting/RESTChart.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PersonalFiles\GDrive\GSyncDrive\KDB\Scripting\PythonScripts\FlaskWebApp\MathWebApp\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PersonalFiles\GDrive\GSyncDrive\KDB\Scripting\PythonScripts\FlaskWebApp\API_Charting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D756969A-977A-45EA-9C2B-614B72721133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A44807-A097-4E47-9EDB-A5B564820118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart1" sheetId="1" r:id="rId1"/>
+    <sheet name="MathWebApp" sheetId="1" r:id="rId1"/>
+    <sheet name="ChatAPI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Resource</t>
   </si>
@@ -88,13 +89,63 @@
   </si>
   <si>
     <t>Substration of two num</t>
+  </si>
+  <si>
+    <t>"/register"</t>
+  </si>
+  <si>
+    <t>RegisterMe</t>
+  </si>
+  <si>
+    <t>Register a User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandatory: F_Name , L_Name,  Username , Password </t>
+  </si>
+  <si>
+    <t>Mandatory Parameter is missing - 304
+Not String values - 302</t>
+  </si>
+  <si>
+    <t>IComment</t>
+  </si>
+  <si>
+    <t>"/comment"</t>
+  </si>
+  <si>
+    <t>Commented sentence will be stored in DB</t>
+  </si>
+  <si>
+    <t>Mandatory: User Creds, Comment</t>
+  </si>
+  <si>
+    <t>Request Success - 200</t>
+  </si>
+  <si>
+    <t>RetriveData</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>"/getstuff"</t>
+  </si>
+  <si>
+    <t>return the comment</t>
+  </si>
+  <si>
+    <t>user creds</t>
+  </si>
+  <si>
+    <t>Authentication Error - 304
+Out of Money - 302</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +161,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +182,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -133,14 +197,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,4 +691,132 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCA3B54-2545-4E6D-8BF6-FB0B4438D1C8}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FlaskWebApp/API_Charting/RESTChart.xlsx
+++ b/FlaskWebApp/API_Charting/RESTChart.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PersonalFiles\GDrive\GSyncDrive\KDB\Scripting\PythonScripts\FlaskWebApp\API_Charting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A44807-A097-4E47-9EDB-A5B564820118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EADA3F9-EEDB-4901-BC63-61BCB584B2D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MathWebApp" sheetId="1" r:id="rId1"/>
-    <sheet name="ChatAPI" sheetId="2" r:id="rId2"/>
+    <sheet name="CommentAPI" sheetId="2" r:id="rId2"/>
+    <sheet name="NPL_Plag" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>Resource</t>
   </si>
@@ -103,10 +104,6 @@
     <t xml:space="preserve">Mandatory: F_Name , L_Name,  Username , Password </t>
   </si>
   <si>
-    <t>Mandatory Parameter is missing - 304
-Not String values - 302</t>
-  </si>
-  <si>
     <t>IComment</t>
   </si>
   <si>
@@ -123,12 +120,6 @@
   </si>
   <si>
     <t>RetriveData</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>"/getstuff"</t>
   </si>
   <si>
     <t>return the comment</t>
@@ -139,6 +130,69 @@
   <si>
     <t>Authentication Error - 304
 Out of Money - 302</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>/div</t>
+  </si>
+  <si>
+    <t>Division of two num</t>
+  </si>
+  <si>
+    <t>301 if param missing, 302 if any param is 0 , 200 if success</t>
+  </si>
+  <si>
+    <t>"/getcomm"</t>
+  </si>
+  <si>
+    <t>Authentication Error - 304 , ifNo Comment then send out a message.
+Out of Money - 302</t>
+  </si>
+  <si>
+    <t>DetectSim</t>
+  </si>
+  <si>
+    <t>"/detectplag"</t>
+  </si>
+  <si>
+    <t>detects if there is any similarity between the documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandatory: Username , Password , Document1 , Document2 </t>
+  </si>
+  <si>
+    <t>Mandatory Parameter is missing - 304
+User Name already exists.</t>
+  </si>
+  <si>
+    <t>Mandatory Parameter is missing - 301
+User Name already exists - 302</t>
+  </si>
+  <si>
+    <t>Mandatory Parameter is missing - 301
+Authentication Error - 303
+Out of Money - 305
+UserName/Password doesnot exist - 304</t>
+  </si>
+  <si>
+    <t>Refill</t>
+  </si>
+  <si>
+    <t>"/refillToken"</t>
+  </si>
+  <si>
+    <t>Admin's ablity to revive tokens for a user</t>
+  </si>
+  <si>
+    <t>Mandatory: Admin Uname/Pass , Refill Amount , User-Account Details</t>
+  </si>
+  <si>
+    <t>Mandatory Parameter is missing - 301
+Authentication Error - 303
+UserName/Password doesnot exist - 304
+Not an Admin Account - 305</t>
   </si>
 </sst>
 </file>
@@ -291,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,6 +364,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,6 +747,26 @@
         <v>17</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -697,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCA3B54-2545-4E6D-8BF6-FB0B4438D1C8}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +833,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -773,47 +853,175 @@
         <v>24</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3F7330-1081-4AA2-8B3C-182A0E1EACEF}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>36</v>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
